--- a/데이터모음.xlsx
+++ b/데이터모음.xlsx
@@ -718,8 +718,8 @@
   <dimension ref="A1:N71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K17" sqref="K17"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -861,9 +861,6 @@
       </c>
       <c r="J4" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="K4" s="2">
-        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
